--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Packaging.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Packaging.xlsx
@@ -26,283 +26,283 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>Aluminium foil - aluminium sheet</t>
+  </si>
+  <si>
+    <t>H510A</t>
+  </si>
+  <si>
+    <t>Artificial casing</t>
+  </si>
+  <si>
+    <t>H066A</t>
+  </si>
+  <si>
+    <t>Artificial fibre fabric</t>
+  </si>
+  <si>
+    <t>H032A</t>
+  </si>
+  <si>
+    <t>Blister (film)</t>
+  </si>
+  <si>
+    <t>H600A</t>
+  </si>
+  <si>
+    <t>Cardboard - paperboard</t>
+  </si>
+  <si>
+    <t>H012A</t>
+  </si>
+  <si>
+    <t>Cellophane</t>
+  </si>
+  <si>
+    <t>H011A</t>
+  </si>
+  <si>
+    <t>Combined aluminium and film packaging</t>
+  </si>
+  <si>
+    <t>H161A</t>
+  </si>
+  <si>
+    <t>Combined material</t>
+  </si>
+  <si>
+    <t>H150A</t>
+  </si>
+  <si>
+    <t>Combined paper and film packaging</t>
+  </si>
+  <si>
+    <t>H160A</t>
+  </si>
+  <si>
+    <t>Combined styropor and film packaging</t>
+  </si>
+  <si>
+    <t>H162A</t>
+  </si>
+  <si>
+    <t>Fabric - textile material</t>
+  </si>
+  <si>
+    <t>H030A</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>H200A</t>
+  </si>
+  <si>
+    <t>High-grade steel or stainless steel or: Fine steel</t>
+  </si>
+  <si>
+    <t>H534A</t>
+  </si>
+  <si>
+    <t>Jute</t>
+  </si>
+  <si>
+    <t>H034A</t>
+  </si>
+  <si>
+    <t>Laminated film; composite film</t>
+  </si>
+  <si>
+    <t>H151A</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>H500A</t>
+  </si>
+  <si>
+    <t>Metal alloy</t>
+  </si>
+  <si>
+    <t>H501A</t>
+  </si>
+  <si>
+    <t>Mixed fibre fabric</t>
+  </si>
+  <si>
+    <t>H033A</t>
+  </si>
+  <si>
+    <t>Natural fibre fabric</t>
+  </si>
+  <si>
+    <t>H031A</t>
+  </si>
+  <si>
+    <t>No information</t>
+  </si>
+  <si>
+    <t>H999A</t>
+  </si>
+  <si>
     <t>Not packed (loose; open)</t>
   </si>
   <si>
     <t>H001A</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Packed</t>
+  </si>
+  <si>
+    <t>H003A</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>H010A</t>
+  </si>
+  <si>
+    <t>Parchment</t>
+  </si>
+  <si>
+    <t>H015A</t>
+  </si>
+  <si>
+    <t>PET Polyethylene terephthalate</t>
+  </si>
+  <si>
+    <t>H125A</t>
+  </si>
+  <si>
+    <t>Plastic - plastic film</t>
+  </si>
+  <si>
+    <t>H100A</t>
+  </si>
+  <si>
+    <t>Polyacryl</t>
+  </si>
+  <si>
+    <t>H124A</t>
+  </si>
+  <si>
+    <t>Polyamide</t>
+  </si>
+  <si>
+    <t>H115A</t>
+  </si>
+  <si>
+    <t>Polycarbonate</t>
+  </si>
+  <si>
+    <t>H118A</t>
+  </si>
+  <si>
+    <t>Polyethylene</t>
+  </si>
+  <si>
+    <t>H106A</t>
+  </si>
+  <si>
+    <t>Polymethane</t>
+  </si>
+  <si>
+    <t>H121A</t>
+  </si>
+  <si>
+    <t>Polypropylene</t>
+  </si>
+  <si>
+    <t>H107A</t>
+  </si>
+  <si>
+    <t>Polystyrene</t>
+  </si>
+  <si>
+    <t>H109A</t>
+  </si>
+  <si>
+    <t>Polyvinyl chloride</t>
+  </si>
+  <si>
+    <t>H103A</t>
+  </si>
+  <si>
+    <t>Porcelain - earthenware - ceramics</t>
+  </si>
+  <si>
+    <t>H210A</t>
+  </si>
+  <si>
+    <t>Protective gas package</t>
+  </si>
+  <si>
+    <t>H004A</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>H530A</t>
+  </si>
+  <si>
+    <t>Tin Free Steel (TFS - sheets- steel sheets with chromium plating)</t>
+  </si>
+  <si>
+    <t>H535A</t>
+  </si>
+  <si>
+    <t>Tinplate</t>
+  </si>
+  <si>
+    <t>H520A</t>
+  </si>
+  <si>
+    <t>Tinplate soldered, not varnished</t>
+  </si>
+  <si>
+    <t>H524A</t>
+  </si>
+  <si>
+    <t>Tinplate, soldered</t>
+  </si>
+  <si>
+    <t>H522A</t>
+  </si>
+  <si>
+    <t>Tinplate, varnished - partly varnished</t>
+  </si>
+  <si>
+    <t>H523A</t>
+  </si>
+  <si>
+    <t>Vacuum package</t>
+  </si>
+  <si>
+    <t>H005A</t>
+  </si>
+  <si>
+    <t>Wax paper - wax cardboard</t>
+  </si>
+  <si>
+    <t>H013A</t>
+  </si>
+  <si>
+    <t>Wood - wood wool</t>
+  </si>
+  <si>
+    <t>H020A</t>
+  </si>
+  <si>
     <t>Wrapped</t>
   </si>
   <si>
     <t>H002A</t>
-  </si>
-  <si>
-    <t>Packed</t>
-  </si>
-  <si>
-    <t>H003A</t>
-  </si>
-  <si>
-    <t>Protective gas package</t>
-  </si>
-  <si>
-    <t>H004A</t>
-  </si>
-  <si>
-    <t>Vacuum package</t>
-  </si>
-  <si>
-    <t>H005A</t>
-  </si>
-  <si>
-    <t>Paper</t>
-  </si>
-  <si>
-    <t>H010A</t>
-  </si>
-  <si>
-    <t>Cellophane</t>
-  </si>
-  <si>
-    <t>H011A</t>
-  </si>
-  <si>
-    <t>Cardboard - paperboard</t>
-  </si>
-  <si>
-    <t>H012A</t>
-  </si>
-  <si>
-    <t>Wax paper - wax cardboard</t>
-  </si>
-  <si>
-    <t>H013A</t>
-  </si>
-  <si>
-    <t>Parchment</t>
-  </si>
-  <si>
-    <t>H015A</t>
-  </si>
-  <si>
-    <t>Wood - wood wool</t>
-  </si>
-  <si>
-    <t>H020A</t>
-  </si>
-  <si>
-    <t>Fabric - textile material</t>
-  </si>
-  <si>
-    <t>H030A</t>
-  </si>
-  <si>
-    <t>Natural fibre fabric</t>
-  </si>
-  <si>
-    <t>H031A</t>
-  </si>
-  <si>
-    <t>Artificial fibre fabric</t>
-  </si>
-  <si>
-    <t>H032A</t>
-  </si>
-  <si>
-    <t>Mixed fibre fabric</t>
-  </si>
-  <si>
-    <t>H033A</t>
-  </si>
-  <si>
-    <t>Jute</t>
-  </si>
-  <si>
-    <t>H034A</t>
-  </si>
-  <si>
-    <t>Artificial casing</t>
-  </si>
-  <si>
-    <t>H066A</t>
-  </si>
-  <si>
-    <t>Plastic - plastic film</t>
-  </si>
-  <si>
-    <t>H100A</t>
-  </si>
-  <si>
-    <t>Polyvinyl chloride</t>
-  </si>
-  <si>
-    <t>H103A</t>
-  </si>
-  <si>
-    <t>Polyethylene</t>
-  </si>
-  <si>
-    <t>H106A</t>
-  </si>
-  <si>
-    <t>Polypropylene</t>
-  </si>
-  <si>
-    <t>H107A</t>
-  </si>
-  <si>
-    <t>Polystyrene</t>
-  </si>
-  <si>
-    <t>H109A</t>
-  </si>
-  <si>
-    <t>Polyamide</t>
-  </si>
-  <si>
-    <t>H115A</t>
-  </si>
-  <si>
-    <t>Polycarbonate</t>
-  </si>
-  <si>
-    <t>H118A</t>
-  </si>
-  <si>
-    <t>Polymethane</t>
-  </si>
-  <si>
-    <t>H121A</t>
-  </si>
-  <si>
-    <t>Polyacryl</t>
-  </si>
-  <si>
-    <t>H124A</t>
-  </si>
-  <si>
-    <t>PET Polyethylene terephthalate</t>
-  </si>
-  <si>
-    <t>H125A</t>
-  </si>
-  <si>
-    <t>Combined material</t>
-  </si>
-  <si>
-    <t>H150A</t>
-  </si>
-  <si>
-    <t>Laminated film; composite film</t>
-  </si>
-  <si>
-    <t>H151A</t>
-  </si>
-  <si>
-    <t>Combined paper and film packaging</t>
-  </si>
-  <si>
-    <t>H160A</t>
-  </si>
-  <si>
-    <t>Combined aluminium and film packaging</t>
-  </si>
-  <si>
-    <t>H161A</t>
-  </si>
-  <si>
-    <t>Combined styropor and film packaging</t>
-  </si>
-  <si>
-    <t>H162A</t>
-  </si>
-  <si>
-    <t>Glass</t>
-  </si>
-  <si>
-    <t>H200A</t>
-  </si>
-  <si>
-    <t>Porcelain - earthenware - ceramics</t>
-  </si>
-  <si>
-    <t>H210A</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>H500A</t>
-  </si>
-  <si>
-    <t>Metal alloy</t>
-  </si>
-  <si>
-    <t>H501A</t>
-  </si>
-  <si>
-    <t>Aluminium foil - aluminium sheet</t>
-  </si>
-  <si>
-    <t>H510A</t>
-  </si>
-  <si>
-    <t>Tinplate</t>
-  </si>
-  <si>
-    <t>H520A</t>
-  </si>
-  <si>
-    <t>Tinplate, soldered</t>
-  </si>
-  <si>
-    <t>H522A</t>
-  </si>
-  <si>
-    <t>Tinplate, varnished - partly varnished</t>
-  </si>
-  <si>
-    <t>H523A</t>
-  </si>
-  <si>
-    <t>Tinplate soldered, not varnished</t>
-  </si>
-  <si>
-    <t>H524A</t>
-  </si>
-  <si>
-    <t>Steel</t>
-  </si>
-  <si>
-    <t>H530A</t>
-  </si>
-  <si>
-    <t>High-grade steel or stainless steel or: Fine steel</t>
-  </si>
-  <si>
-    <t>H534A</t>
-  </si>
-  <si>
-    <t>Tin Free Steel (TFS - sheets- steel sheets with chromium plating)</t>
-  </si>
-  <si>
-    <t>H535A</t>
-  </si>
-  <si>
-    <t>Blister (film)</t>
-  </si>
-  <si>
-    <t>H600A</t>
-  </si>
-  <si>
-    <t>No information</t>
-  </si>
-  <si>
-    <t>H999A</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -537,204 +537,204 @@
         <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
         <v>48</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
         <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
         <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
         <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
         <v>56</v>
-      </c>
-      <c r="B28" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
         <v>58</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
         <v>60</v>
-      </c>
-      <c r="B30" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
         <v>62</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
         <v>64</v>
-      </c>
-      <c r="B32" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
         <v>66</v>
-      </c>
-      <c r="B33" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
         <v>68</v>
-      </c>
-      <c r="B34" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
         <v>70</v>
-      </c>
-      <c r="B35" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
         <v>72</v>
-      </c>
-      <c r="B36" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
         <v>74</v>
-      </c>
-      <c r="B37" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
         <v>76</v>
-      </c>
-      <c r="B38" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
         <v>78</v>
-      </c>
-      <c r="B39" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
         <v>80</v>
-      </c>
-      <c r="B40" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
         <v>82</v>
-      </c>
-      <c r="B41" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
         <v>84</v>
-      </c>
-      <c r="B42" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
         <v>86</v>
-      </c>
-      <c r="B43" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
         <v>88</v>
-      </c>
-      <c r="B44" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
         <v>90</v>
-      </c>
-      <c r="B45" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
         <v>92</v>
-      </c>
-      <c r="B46" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
         <v>94</v>
-      </c>
-      <c r="B47" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
         <v>96</v>
